--- a/data_excel/719.xlsx
+++ b/data_excel/719.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>文文</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +513,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -707,15 +711,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/719.xlsx
+++ b/data_excel/719.xlsx
@@ -129,9 +129,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +514,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,16 +716,16 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>

--- a/data_excel/719.xlsx
+++ b/data_excel/719.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>文文</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +518,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -627,12 +631,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
